--- a/nodes_source_analyses/energy/transport/transport_bus_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_bus_using_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490C9A2-8303-0C48-90B1-1B26C05793FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="460" windowWidth="43680" windowHeight="26900" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="-60160" yWindow="-18040" windowWidth="30080" windowHeight="16080" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,21 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentManualCount="4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
   <si>
     <t>Source</t>
   </si>
@@ -172,9 +184,6 @@
   </si>
   <si>
     <t>cedelft-ecn-tno</t>
-  </si>
-  <si>
-    <t>jbhunt</t>
   </si>
   <si>
     <t>Comments</t>
@@ -220,9 +229,6 @@
     <t>mln vehicle km</t>
   </si>
   <si>
-    <t>transport_bus_using_compressed_natural_gas.converter.ad</t>
-  </si>
-  <si>
     <t>CBS</t>
   </si>
   <si>
@@ -290,22 +296,259 @@
   </si>
   <si>
     <t>pkm/MJ</t>
+  </si>
+  <si>
+    <t>storage.volume</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>storage.decay</t>
+  </si>
+  <si>
+    <t>% per hour</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>full_load_hours</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>initial_investment</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>fixed_operation_and_maintenance_costs_per_year</t>
+  </si>
+  <si>
+    <t>euro/year</t>
+  </si>
+  <si>
+    <t>Fixed operational and maintenance costs per year</t>
+  </si>
+  <si>
+    <t>ccs_investment</t>
+  </si>
+  <si>
+    <t>CCS investment costs</t>
+  </si>
+  <si>
+    <t>cost_of_installing</t>
+  </si>
+  <si>
+    <t>Installation costs</t>
+  </si>
+  <si>
+    <r>
+      <t>decommis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ioning_costs</t>
+    </r>
+  </si>
+  <si>
+    <t>Decommissioning costs</t>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_per_full_load_hour</t>
+  </si>
+  <si>
+    <t>Variable operational and maintenance costs per flh</t>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</t>
+  </si>
+  <si>
+    <t>Variable operational and maintenance costs for ccs per flh</t>
+  </si>
+  <si>
+    <t>wacc</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>takes_part_in_ets</t>
+  </si>
+  <si>
+    <t>yes=1, no=0</t>
+  </si>
+  <si>
+    <t>technical_lifetime</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical lifetime </t>
+  </si>
+  <si>
+    <t>Does not take part in ETS</t>
+  </si>
+  <si>
+    <t>The ETM only encompasses costs that are directly related to the energy system, see documentation: https://docs.energytransitionmodel.com/main/cost-main-principles</t>
+  </si>
+  <si>
+    <t>p.87</t>
+  </si>
+  <si>
+    <t>yr</t>
+  </si>
+  <si>
+    <t>electricity_output_capacity</t>
+  </si>
+  <si>
+    <t>VDL Citea busses</t>
+  </si>
+  <si>
+    <t>p.23</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>assumption: input capacity = output capacity</t>
+  </si>
+  <si>
+    <t>Tesla model s owner's manual</t>
+  </si>
+  <si>
+    <t>p 6.4</t>
+  </si>
+  <si>
+    <t>Decay assumed to be the same as for lithium-ion battteries in cars as decay depends on battery type, not vehicle</t>
+  </si>
+  <si>
+    <t>storage decay per hour</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>23/08/16</t>
+  </si>
+  <si>
+    <t>https://www.tesla.com/sites/default/files/blog_attachments/model_s_owners_manual_europe_1.0.pdf</t>
+  </si>
+  <si>
+    <t>VDL Citea brochure</t>
+  </si>
+  <si>
+    <t>01/2023</t>
+  </si>
+  <si>
+    <t>https://brochures.vdlbuscoach.com/en/brochure.html?brochure=3&amp;lang=83</t>
+  </si>
+  <si>
+    <t>VDL</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Necessary attribute for 0 euro costs baseline</t>
+  </si>
+  <si>
+    <t>transport_bus_using_electricity.converter.ad</t>
+  </si>
+  <si>
+    <t>Marlieke Verweij</t>
+  </si>
+  <si>
+    <t>Quintel assumption</t>
+  </si>
+  <si>
+    <t>construction_time</t>
+  </si>
+  <si>
+    <t>Construction time of the plant</t>
+  </si>
+  <si>
+    <t>Set to 0 baseline</t>
+  </si>
+  <si>
+    <t>Weighted average cost of capital</t>
+  </si>
+  <si>
+    <t>Quintel assumption (see https://docs.energytransitionmodel.com/main/cost-wacc)</t>
+  </si>
+  <si>
+    <t>storage decay per month</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000%"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -504,6 +747,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -579,7 +834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -784,420 +1039,472 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="33" fillId="2" borderId="18" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1441,12 +1748,16 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="243" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1469,7 +1780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1507,20 +1824,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6464300" y="3149600"/>
-          <a:ext cx="5829300" cy="2279933"/>
+          <a:off x="8775700" y="3149600"/>
+          <a:ext cx="6781800" cy="2279933"/>
           <a:chOff x="9231573" y="32137067"/>
           <a:chExt cx="12902777" cy="4417646"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="Picture 10"/>
+          <xdr:cNvPr id="11" name="Picture 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1543,7 +1872,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1602,20 +1937,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6934200" y="6832600"/>
-          <a:ext cx="11760199" cy="2514600"/>
+          <a:off x="9245600" y="6832600"/>
+          <a:ext cx="13830299" cy="2514600"/>
           <a:chOff x="9702800" y="37896800"/>
           <a:chExt cx="16776701" cy="4152900"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="Picture 13"/>
+          <xdr:cNvPr id="14" name="Picture 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1638,7 +1985,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvPr id="15" name="Rectangle 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1692,7 +2045,13 @@
     <xdr:ext cx="2336800" cy="1600200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1730,7 +2089,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1768,7 +2133,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1783,6 +2154,138 @@
         <a:xfrm>
           <a:off x="5765800" y="11671300"/>
           <a:ext cx="7327900" cy="4324313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD4B34C-D9F6-9741-ABAD-9BB73BD29F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2146300" y="736600"/>
+          <a:ext cx="5638800" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1574800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>8452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{600DEE52-2B5D-BC43-EEDA-D319F7B0FF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9017000" y="20798352"/>
+          <a:ext cx="11264900" cy="5011224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1536700</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C34CA9-FD15-9A4A-9B0B-1065E4BE2D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978900" y="25692100"/>
+          <a:ext cx="2336800" cy="4330700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2228,58 +2731,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="3.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="17" customFormat="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2288,117 +2793,117 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="47"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="51" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="59" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="56"/>
-      <c r="C23" s="60" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="46"/>
+      <c r="C23" s="50" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2409,205 +2914,536 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="26" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="26" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="26" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="26" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="3.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="118"/>
-    </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62" t="s">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
+      <c r="B2" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="123"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1"/>
+    <row r="7" spans="2:10">
+      <c r="B7" s="24"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="2:10" s="9" customFormat="1">
+      <c r="B8" s="51"/>
+      <c r="C8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="2:10" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="11" t="s">
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="2:10" s="9" customFormat="1">
+      <c r="B9" s="14"/>
+      <c r="D9" s="21"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="B10" s="14"/>
+      <c r="C10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="2:10" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D10" s="21"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="B11" s="14"/>
+      <c r="C11" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="22">
         <f>'Research data'!E7</f>
         <v>2.8361075544174135</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="93" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="11" t="s">
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="B12" s="14"/>
+      <c r="C12" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="97">
+        <f>'Research data'!E8</f>
+        <v>0.216</v>
+      </c>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="B13" s="14"/>
+      <c r="C13" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="118">
+        <f>'Research data'!E9</f>
+        <v>5.4866766968530989E-5</v>
+      </c>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="119" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="2:10" s="9" customFormat="1" ht="17" thickBot="1">
+      <c r="B14" s="14"/>
+      <c r="C14" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="97">
+        <f>'Research data'!E10</f>
+        <v>0.32</v>
+      </c>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" s="93" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="94"/>
+      <c r="C15" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="97">
+        <f>'Research data'!E11</f>
+        <v>0.32</v>
+      </c>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="119" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" s="96"/>
+    </row>
+    <row r="16" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B16" s="94"/>
+      <c r="C16" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="98">
+        <v>1</v>
+      </c>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" s="96"/>
+    </row>
+    <row r="17" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B17" s="94"/>
+      <c r="C17" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="99">
+        <v>0</v>
+      </c>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="119" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="96"/>
+    </row>
+    <row r="18" spans="2:10" s="93" customFormat="1">
+      <c r="B18" s="94"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="100"/>
+      <c r="J18" s="96"/>
+    </row>
+    <row r="19" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B19" s="94"/>
+      <c r="C19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="101"/>
+      <c r="J19" s="96"/>
+    </row>
+    <row r="20" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B20" s="94"/>
+      <c r="C20" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="95">
+        <v>0</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="91"/>
+      <c r="I20" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="96"/>
+    </row>
+    <row r="21" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B21" s="94"/>
+      <c r="C21" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="95">
+        <v>0</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="96"/>
+    </row>
+    <row r="22" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B22" s="102"/>
+      <c r="C22" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="104"/>
+      <c r="E22" s="95">
+        <v>0</v>
+      </c>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="103"/>
+      <c r="I22" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="105"/>
+    </row>
+    <row r="23" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B23" s="102"/>
+      <c r="C23" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="95">
+        <v>0</v>
+      </c>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="103"/>
+      <c r="I23" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="105"/>
+    </row>
+    <row r="24" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B24" s="102"/>
+      <c r="C24" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="95">
+        <v>0</v>
+      </c>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="103"/>
+      <c r="I24" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="105"/>
+    </row>
+    <row r="25" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B25" s="102"/>
+      <c r="C25" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="104"/>
+      <c r="E25" s="95">
+        <v>0</v>
+      </c>
+      <c r="F25" s="103"/>
+      <c r="G25" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="103"/>
+      <c r="I25" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="105"/>
+    </row>
+    <row r="26" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B26" s="102"/>
+      <c r="C26" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="95">
+        <v>0</v>
+      </c>
+      <c r="F26" s="103"/>
+      <c r="G26" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="103"/>
+      <c r="I26" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="105"/>
+    </row>
+    <row r="27" spans="2:10" s="93" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B27" s="94"/>
+      <c r="C27" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="106">
+        <v>0.04</v>
+      </c>
+      <c r="F27" s="91"/>
+      <c r="G27" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="91"/>
+      <c r="I27" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="96"/>
+    </row>
+    <row r="28" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B28" s="94"/>
+      <c r="C28" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="95">
+        <v>0</v>
+      </c>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="96"/>
+    </row>
+    <row r="29" spans="2:10" s="93" customFormat="1">
+      <c r="B29" s="94"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="J29" s="96"/>
+    </row>
+    <row r="30" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B30" s="94"/>
+      <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="30" t="s">
+      <c r="D30" s="55"/>
+      <c r="E30" s="84"/>
+      <c r="J30" s="96"/>
+    </row>
+    <row r="31" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B31" s="94"/>
+      <c r="C31" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="99">
+        <f>'Research data'!E14</f>
+        <v>14</v>
+      </c>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" s="91"/>
+      <c r="I31" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="96"/>
+    </row>
+    <row r="32" spans="2:10" s="93" customFormat="1" ht="17" thickBot="1">
+      <c r="B32" s="94"/>
+      <c r="C32" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="98">
+        <v>0</v>
+      </c>
+      <c r="F32" s="91"/>
+      <c r="G32" s="130" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="91"/>
+      <c r="I32" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="J32" s="96"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
+      <c r="B33" s="27"/>
+      <c r="C33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E33" s="28">
         <v>0</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="31"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G5"/>
@@ -2618,120 +3454,285 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:K8"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="4.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="36" customWidth="1"/>
-    <col min="6" max="6" width="2.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="59.1640625" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="36"/>
+    <col min="1" max="2" width="4.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="32" customWidth="1"/>
+    <col min="8" max="10" width="17.140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="59.140625" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="2:11" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="69" t="s">
+    <row r="2" spans="1:12" ht="17" thickBot="1"/>
+    <row r="3" spans="1:12">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="132"/>
+    </row>
+    <row r="4" spans="1:12" s="9" customFormat="1">
+      <c r="B4" s="14"/>
+      <c r="C4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="39"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="136"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-    </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="92">
-        <f>I7</f>
+      <c r="D6" s="137"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="139"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" thickBot="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="75">
+        <f>H7</f>
         <v>2.8361075544174135</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="92">
+      <c r="F7" s="135"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="75">
         <f>Notes!E34</f>
         <v>2.8361075544174135</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="45"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="39"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="K8" s="44"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="142"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" thickBot="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="143" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="75">
+        <f>I8</f>
+        <v>0.216</v>
+      </c>
+      <c r="F8" s="135"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="107">
+        <f>Notes!E108</f>
+        <v>0.216</v>
+      </c>
+      <c r="J8" s="145"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="136"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" thickBot="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="75">
+        <f>J9</f>
+        <v>5.4866766968530989E-5</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="107">
+        <f>Notes!E132</f>
+        <v>5.4866766968530989E-5</v>
+      </c>
+      <c r="K9" s="131"/>
+      <c r="L9" s="146"/>
+    </row>
+    <row r="10" spans="1:12" ht="17" thickBot="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="143" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="75">
+        <f t="shared" ref="E10:E11" si="0">I10</f>
+        <v>0.32</v>
+      </c>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="107">
+        <f>Notes!E111</f>
+        <v>0.32</v>
+      </c>
+      <c r="J10" s="145"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="146"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" thickBot="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="147" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="75">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="107">
+        <f>Notes!E110</f>
+        <v>0.32</v>
+      </c>
+      <c r="J11" s="145"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="146"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="35"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="146"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" thickBot="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="149"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="146"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="143" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="144" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="75">
+        <f>H14</f>
+        <v>14</v>
+      </c>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="75">
+        <f>Notes!C89</f>
+        <v>14</v>
+      </c>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="146"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" thickBot="1">
+      <c r="B15" s="150"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2740,234 +3741,351 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="70" customWidth="1"/>
-    <col min="2" max="2" width="4" style="70" customWidth="1"/>
-    <col min="3" max="3" width="47.33203125" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="70" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="71" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="71" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="70" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="70"/>
+    <col min="1" max="1" width="3.140625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="4" style="58" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="58" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="58" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="59" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="73"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="75"/>
-      <c r="C3" s="11" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="63"/>
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="75"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="77"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="79"/>
-      <c r="C5" s="62" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="63"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="65"/>
+      <c r="C5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="80" t="s">
+      <c r="J5" s="52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="63"/>
+      <c r="C6" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="58">
+        <v>2013</v>
+      </c>
+      <c r="G6" s="58">
+        <v>2012</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="75"/>
-      <c r="C6" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="77" t="s">
+      <c r="J6" s="58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="63"/>
+      <c r="C7" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="63"/>
+      <c r="C8" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="63"/>
+    </row>
+    <row r="10" spans="2:10" s="86" customFormat="1">
+      <c r="B10" s="63"/>
+      <c r="C10" s="87"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+    </row>
+    <row r="11" spans="2:10" s="86" customFormat="1">
+      <c r="B11" s="63"/>
+      <c r="C11" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="77">
+      <c r="G11" s="86">
+        <v>2015</v>
+      </c>
+      <c r="H11" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="63"/>
+      <c r="C12" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="58">
+        <v>2015</v>
+      </c>
+      <c r="H12" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="63"/>
+      <c r="C13" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="58">
+        <v>2015</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="63"/>
+      <c r="C14" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="58">
+        <v>2014</v>
+      </c>
+      <c r="H14" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="63"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="63"/>
+    </row>
+    <row r="17" spans="2:10" s="108" customFormat="1">
+      <c r="B17" s="63"/>
+      <c r="C17" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="108">
         <v>2013</v>
       </c>
-      <c r="G6" s="77">
-        <v>2012</v>
-      </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="75"/>
-      <c r="C7" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="75"/>
-      <c r="C8" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="10" spans="2:10" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="104"/>
-      <c r="C10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-    </row>
-    <row r="11" spans="2:10" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="104"/>
-      <c r="C11" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="103" t="s">
+      <c r="G17" s="108">
+        <v>2013</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="117"/>
+      <c r="J17" s="108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="63"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="63"/>
+      <c r="C19" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="103">
-        <v>2015</v>
-      </c>
-      <c r="H11" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="106"/>
-      <c r="J11" s="103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="70">
-        <v>2015</v>
-      </c>
-      <c r="H12" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="107" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="70">
-        <v>2015</v>
-      </c>
-      <c r="H13" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="70">
-        <v>2014</v>
-      </c>
-      <c r="H14" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="70" t="s">
-        <v>77</v>
-      </c>
+      <c r="F19" s="58">
+        <v>2019</v>
+      </c>
+      <c r="G19" s="58">
+        <v>2019</v>
+      </c>
+      <c r="H19" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="63"/>
+      <c r="C20" s="108" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="63"/>
+      <c r="C21" s="108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="63"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="63"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="63"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="63"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="63"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="63"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="63"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="63"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="63"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="63"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="63"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="63"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="63"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="63"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="63"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="63"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="63"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="63"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="63"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="63"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2976,477 +4094,842 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:AC174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="83" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="83" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="83" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="83"/>
-    <col min="5" max="5" width="17.5" style="83" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="83"/>
-    <col min="9" max="9" width="20.83203125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="83"/>
-    <col min="11" max="11" width="10" style="83" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="83"/>
+    <col min="1" max="1" width="5.42578125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="68" customWidth="1"/>
+    <col min="6" max="8" width="10.85546875" style="68"/>
+    <col min="9" max="9" width="20.85546875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="68"/>
+    <col min="11" max="11" width="10" style="68" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-    </row>
-    <row r="3" spans="2:29" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
+    <row r="1" spans="2:29" ht="17" thickBot="1"/>
+    <row r="2" spans="2:29">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+    </row>
+    <row r="3" spans="2:29" s="9" customFormat="1">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="86"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B5" s="86"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="86"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B7" s="86"/>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="86"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B9" s="86"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B10" s="86"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B11" s="86"/>
-      <c r="C11" s="89" t="s">
+      <c r="D3" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="B4" s="71"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="71"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="71"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="71"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="71"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="71"/>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="71"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" s="71"/>
+      <c r="C11" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="68">
         <v>5</v>
       </c>
-      <c r="F11" s="89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B12" s="86"/>
-      <c r="C12" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="83">
+      <c r="F11" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" s="71"/>
+      <c r="C12" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="68">
         <f>1/E11</f>
         <v>0.2</v>
       </c>
-      <c r="F12" s="89" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B15" s="86"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B16" s="86"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="86"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="86"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="86"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="86"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="86"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="86"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="86"/>
-    </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-    </row>
-    <row r="25" spans="2:10" s="96" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="98" t="s">
+      <c r="F12" s="74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" s="71"/>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="B14" s="71"/>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="B15" s="71"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="B16" s="71"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="71"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="71"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="71"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="71"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="71"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="71"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="71"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
+      <c r="B24" s="71"/>
+    </row>
+    <row r="25" spans="2:10" s="79" customFormat="1" ht="17" thickBot="1">
+      <c r="B25" s="71"/>
+      <c r="C25" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="82">
+        <v>624.79999999999995</v>
+      </c>
+      <c r="F25" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="99">
-        <v>624.79999999999995</v>
-      </c>
-      <c r="F25" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-    </row>
-    <row r="26" spans="2:10" s="96" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98">
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+    </row>
+    <row r="26" spans="2:10" s="79" customFormat="1" ht="17" thickBot="1">
+      <c r="B26" s="71"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81">
         <f>E25*1000000</f>
         <v>624800000</v>
       </c>
-      <c r="F26" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-    </row>
-    <row r="27" spans="2:10" s="96" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="100">
+      <c r="F26" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+    </row>
+    <row r="27" spans="2:10" s="79" customFormat="1" ht="17" thickBot="1">
+      <c r="B27" s="71"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="83">
         <f>5.8-0.9+3.96</f>
         <v>8.86</v>
       </c>
-      <c r="F27" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-    </row>
-    <row r="28" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="86"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="101">
+      <c r="F27" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+    </row>
+    <row r="28" spans="2:10" s="79" customFormat="1">
+      <c r="B28" s="71"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84">
         <f>E27*1000000000</f>
         <v>8860000000</v>
       </c>
-      <c r="F28" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-    </row>
-    <row r="29" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="86"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="86"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="102">
+      <c r="F28" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+    </row>
+    <row r="29" spans="2:10" s="79" customFormat="1">
+      <c r="B29" s="71"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" s="79" customFormat="1">
+      <c r="B30" s="71"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="85">
         <f>E28/E26</f>
         <v>14.180537772087067</v>
       </c>
-      <c r="F30" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="96" t="s">
+      <c r="F30" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" s="79" customFormat="1">
+      <c r="B31" s="71"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="86"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="96" t="s">
+    <row r="32" spans="2:10" s="79" customFormat="1">
+      <c r="B32" s="71"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" s="79" customFormat="1">
+      <c r="B33" s="71"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="79" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="86"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="96" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="86"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="86"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98" t="str">
+    <row r="34" spans="2:10" s="79" customFormat="1">
+      <c r="B34" s="71"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
       </c>
-      <c r="E34" s="98">
+      <c r="E34" s="81">
         <f>E30*E12</f>
         <v>2.8361075544174135</v>
       </c>
-      <c r="F34" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="98"/>
-      <c r="H34" s="69" t="s">
+      <c r="F34" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="81"/>
+      <c r="H34" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="98"/>
-    </row>
-    <row r="35" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="86"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
-      <c r="I35" s="98"/>
-    </row>
-    <row r="36" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="86"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="I36" s="98"/>
-    </row>
-    <row r="37" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="86"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="I37" s="98"/>
-    </row>
-    <row r="38" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="86"/>
-    </row>
-    <row r="39" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="86"/>
-    </row>
-    <row r="40" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="86"/>
-    </row>
-    <row r="41" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="86"/>
-    </row>
-    <row r="42" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="86"/>
-    </row>
-    <row r="43" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="86"/>
-    </row>
-    <row r="44" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="86"/>
-    </row>
-    <row r="45" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="86"/>
-    </row>
-    <row r="46" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="86"/>
-    </row>
-    <row r="47" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="86"/>
-    </row>
-    <row r="48" spans="2:10" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="86"/>
-    </row>
-    <row r="49" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="86"/>
-    </row>
-    <row r="50" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="86"/>
-    </row>
-    <row r="51" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="86"/>
-    </row>
-    <row r="52" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="86"/>
-    </row>
-    <row r="53" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="86"/>
-    </row>
-    <row r="54" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="86"/>
-    </row>
-    <row r="55" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="86"/>
-    </row>
-    <row r="56" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="86"/>
-    </row>
-    <row r="57" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="86"/>
-    </row>
-    <row r="58" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="86"/>
-    </row>
-    <row r="59" spans="2:2" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="86"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="86"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="86"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="86"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="86"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="86"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="86"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="86"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="86"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="86"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="86"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="86"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="86"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="86"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="86"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="86"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="86"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="86"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="86"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="86"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="86"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="86"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="86"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="86"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="86"/>
+      <c r="I34" s="81"/>
+    </row>
+    <row r="35" spans="2:10" s="79" customFormat="1">
+      <c r="B35" s="71"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="I35" s="81"/>
+    </row>
+    <row r="36" spans="2:10" s="79" customFormat="1">
+      <c r="B36" s="71"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="I36" s="81"/>
+    </row>
+    <row r="37" spans="2:10" s="79" customFormat="1">
+      <c r="B37" s="71"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="I37" s="81"/>
+    </row>
+    <row r="38" spans="2:10" s="79" customFormat="1">
+      <c r="B38" s="71"/>
+    </row>
+    <row r="39" spans="2:10" s="79" customFormat="1">
+      <c r="B39" s="71"/>
+    </row>
+    <row r="40" spans="2:10" s="79" customFormat="1">
+      <c r="B40" s="71"/>
+    </row>
+    <row r="41" spans="2:10" s="79" customFormat="1">
+      <c r="B41" s="71"/>
+    </row>
+    <row r="42" spans="2:10" s="79" customFormat="1">
+      <c r="B42" s="71"/>
+    </row>
+    <row r="43" spans="2:10" s="79" customFormat="1">
+      <c r="B43" s="71"/>
+    </row>
+    <row r="44" spans="2:10" s="79" customFormat="1">
+      <c r="B44" s="71"/>
+    </row>
+    <row r="45" spans="2:10" s="79" customFormat="1">
+      <c r="B45" s="71"/>
+    </row>
+    <row r="46" spans="2:10" s="79" customFormat="1">
+      <c r="B46" s="71"/>
+    </row>
+    <row r="47" spans="2:10" s="79" customFormat="1">
+      <c r="B47" s="71"/>
+    </row>
+    <row r="48" spans="2:10" s="79" customFormat="1">
+      <c r="B48" s="71"/>
+    </row>
+    <row r="49" spans="2:2" s="79" customFormat="1">
+      <c r="B49" s="71"/>
+    </row>
+    <row r="50" spans="2:2" s="79" customFormat="1">
+      <c r="B50" s="71"/>
+    </row>
+    <row r="51" spans="2:2" s="79" customFormat="1">
+      <c r="B51" s="71"/>
+    </row>
+    <row r="52" spans="2:2" s="79" customFormat="1">
+      <c r="B52" s="71"/>
+    </row>
+    <row r="53" spans="2:2" s="79" customFormat="1">
+      <c r="B53" s="71"/>
+    </row>
+    <row r="54" spans="2:2" s="79" customFormat="1">
+      <c r="B54" s="71"/>
+    </row>
+    <row r="55" spans="2:2" s="79" customFormat="1">
+      <c r="B55" s="71"/>
+    </row>
+    <row r="56" spans="2:2" s="79" customFormat="1">
+      <c r="B56" s="71"/>
+    </row>
+    <row r="57" spans="2:2" s="79" customFormat="1">
+      <c r="B57" s="71"/>
+    </row>
+    <row r="58" spans="2:2" s="79" customFormat="1">
+      <c r="B58" s="71"/>
+    </row>
+    <row r="59" spans="2:2" s="79" customFormat="1">
+      <c r="B59" s="71"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="71"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="71"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="71"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="71"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="71"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="71"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="71"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="71"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="71"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="71"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="71"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="71"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="71"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="71"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="71"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="71"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="71"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="71"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="71"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="71"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="71"/>
+    </row>
+    <row r="81" spans="2:4" s="93" customFormat="1">
+      <c r="B81" s="94"/>
+    </row>
+    <row r="82" spans="2:4" s="93" customFormat="1">
+      <c r="B82" s="94"/>
+    </row>
+    <row r="83" spans="2:4" s="93" customFormat="1">
+      <c r="B83" s="94"/>
+      <c r="C83" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" s="93" customFormat="1">
+      <c r="B84" s="94"/>
+      <c r="C84" s="93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="93" customFormat="1">
+      <c r="B85" s="94"/>
+    </row>
+    <row r="86" spans="2:4" s="93" customFormat="1">
+      <c r="B86" s="94"/>
+    </row>
+    <row r="87" spans="2:4" s="93" customFormat="1">
+      <c r="B87" s="94"/>
+    </row>
+    <row r="88" spans="2:4" s="93" customFormat="1">
+      <c r="B88" s="94"/>
+    </row>
+    <row r="89" spans="2:4" s="93" customFormat="1">
+      <c r="B89" s="94"/>
+      <c r="C89" s="93">
+        <v>14</v>
+      </c>
+      <c r="D89" s="93" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" s="93" customFormat="1">
+      <c r="B90" s="94"/>
+    </row>
+    <row r="91" spans="2:4" s="93" customFormat="1">
+      <c r="B91" s="94"/>
+    </row>
+    <row r="92" spans="2:4" s="93" customFormat="1">
+      <c r="B92" s="94"/>
+    </row>
+    <row r="93" spans="2:4" s="93" customFormat="1">
+      <c r="B93" s="94"/>
+    </row>
+    <row r="94" spans="2:4" s="93" customFormat="1">
+      <c r="B94" s="94"/>
+    </row>
+    <row r="95" spans="2:4" s="93" customFormat="1">
+      <c r="B95" s="94"/>
+    </row>
+    <row r="96" spans="2:4" s="93" customFormat="1">
+      <c r="B96" s="94"/>
+    </row>
+    <row r="97" spans="2:7" s="93" customFormat="1">
+      <c r="B97" s="94"/>
+    </row>
+    <row r="98" spans="2:7" s="93" customFormat="1">
+      <c r="B98" s="94"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="71"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="71"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="94"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="94"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="94"/>
+      <c r="C103" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="94"/>
+      <c r="C104" s="108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="94"/>
+      <c r="C105" s="108"/>
+    </row>
+    <row r="106" spans="2:7" ht="17" thickBot="1">
+      <c r="B106" s="94"/>
+    </row>
+    <row r="107" spans="2:7" ht="17" thickBot="1">
+      <c r="B107" s="94"/>
+      <c r="D107" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" s="110">
+        <v>216</v>
+      </c>
+      <c r="F107" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" s="111"/>
+    </row>
+    <row r="108" spans="2:7" ht="17" thickBot="1">
+      <c r="B108" s="94"/>
+      <c r="D108" s="109"/>
+      <c r="E108" s="110">
+        <f>E107/1000</f>
+        <v>0.216</v>
+      </c>
+      <c r="F108" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="G108" s="111"/>
+    </row>
+    <row r="109" spans="2:7" ht="17" thickBot="1">
+      <c r="B109" s="94"/>
+      <c r="D109" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="110">
+        <v>320</v>
+      </c>
+      <c r="F109" s="111" t="s">
+        <v>117</v>
+      </c>
+      <c r="G109" s="111"/>
+    </row>
+    <row r="110" spans="2:7" ht="17" thickBot="1">
+      <c r="B110" s="94"/>
+      <c r="E110" s="110">
+        <f>E109/1000</f>
+        <v>0.32</v>
+      </c>
+      <c r="F110" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="111"/>
+    </row>
+    <row r="111" spans="2:7" ht="17" thickBot="1">
+      <c r="B111" s="94"/>
+      <c r="D111" s="111" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="112">
+        <f>E110</f>
+        <v>0.32</v>
+      </c>
+      <c r="F111" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="G111" s="111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="94"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="94"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="94"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="94"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="94"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="94"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="94"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="94"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="94"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="94"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="94"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="94"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="94"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="94"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="94"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="94"/>
+      <c r="C127" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="94"/>
+      <c r="C128" s="68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="94"/>
+      <c r="C129" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="17" thickBot="1">
+      <c r="B130" s="94"/>
+    </row>
+    <row r="131" spans="2:5" ht="17" thickBot="1">
+      <c r="B131" s="94"/>
+      <c r="D131" s="153" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="113">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="17" thickBot="1">
+      <c r="B132" s="94"/>
+      <c r="D132" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="114">
+        <f>1-(1-E131)^(1/(24*31))</f>
+        <v>5.4866766968530989E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="94"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="94"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="94"/>
+      <c r="E135" s="154"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="94"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="94"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="94"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="94"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="94"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="94"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="94"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="94"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="94"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="94"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="94"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="94"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="94"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="94"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="94"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="94"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="94"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="94"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="94"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="94"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="94"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="94"/>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="94"/>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="94"/>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="94"/>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="94"/>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="94"/>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="94"/>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="94"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="94"/>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="94"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="94"/>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="94"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="94"/>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="94"/>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="94"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="94"/>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="94"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
